--- a/Datasheet/UnitData.xlsx
+++ b/Datasheet/UnitData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\ㅇㅇㅇ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\Develop\GitHub\ValutOfHeaven\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF35BB6E-42FA-4C6E-9803-6F38A9CBB67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903B5B67-5542-411A-B010-305A6DD0AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="6045" windowWidth="23220" windowHeight="7830" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitData" sheetId="14" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,64 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DD_01</t>
-  </si>
-  <si>
-    <t>CL_01</t>
-  </si>
-  <si>
-    <t>CA_01</t>
-  </si>
-  <si>
-    <t>BB_01</t>
-  </si>
-  <si>
-    <t>CV_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SS_01</t>
-  </si>
-  <si>
-    <t>FF_01</t>
-  </si>
-  <si>
-    <t>DDG_01</t>
-  </si>
-  <si>
-    <t>BC_01</t>
-  </si>
-  <si>
-    <t>CVL_01</t>
-  </si>
-  <si>
-    <t>CLAA_01</t>
-  </si>
-  <si>
-    <t>LSV_01</t>
-  </si>
-  <si>
-    <t>SSN_01</t>
-  </si>
-  <si>
-    <t>AE_01</t>
-  </si>
-  <si>
-    <t>PT_01</t>
-  </si>
-  <si>
-    <t>CB_01</t>
-  </si>
-  <si>
-    <t>DDX_01</t>
-  </si>
-  <si>
-    <t>SSK_01</t>
-  </si>
-  <si>
-    <t>AM_01</t>
-  </si>
-  <si>
     <t>w_1</t>
   </si>
   <si>
@@ -136,21 +78,122 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI_02</t>
-  </si>
-  <si>
-    <t>AI_03</t>
-  </si>
-  <si>
-    <t>AI_04</t>
-  </si>
-  <si>
     <t>mp</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_DD_1</t>
+  </si>
+  <si>
+    <t>Unit_DD_2</t>
+  </si>
+  <si>
+    <t>Unit_CL_1</t>
+  </si>
+  <si>
+    <t>Unit_CL_2</t>
+  </si>
+  <si>
+    <t>Unit_CA_1</t>
+  </si>
+  <si>
+    <t>Unit_CA_2</t>
+  </si>
+  <si>
+    <t>Unit_BB_1</t>
+  </si>
+  <si>
+    <t>Unit_BB_2</t>
+  </si>
+  <si>
+    <t>Unit_CV_1</t>
+  </si>
+  <si>
+    <t>Unit_CV_2</t>
+  </si>
+  <si>
+    <t>Unit_SS_1</t>
+  </si>
+  <si>
+    <t>Unit_SS_2</t>
+  </si>
+  <si>
+    <t>Unit_FF_1</t>
+  </si>
+  <si>
+    <t>Unit_FF_2</t>
+  </si>
+  <si>
+    <t>Unit_DDG_1</t>
+  </si>
+  <si>
+    <t>Unit_DDG_2</t>
+  </si>
+  <si>
+    <t>Unit_BC_1</t>
+  </si>
+  <si>
+    <t>Unit_BC_2</t>
+  </si>
+  <si>
+    <t>Unit_CVL_1</t>
+  </si>
+  <si>
+    <t>Unit_CVL_2</t>
+  </si>
+  <si>
+    <t>Unit_CLAA_1</t>
+  </si>
+  <si>
+    <t>Unit_CLAA_2</t>
+  </si>
+  <si>
+    <t>Unit_LSV_1</t>
+  </si>
+  <si>
+    <t>Unit_LSV_2</t>
+  </si>
+  <si>
+    <t>Unit_SSN_1</t>
+  </si>
+  <si>
+    <t>Unit_SSN_2</t>
+  </si>
+  <si>
+    <t>Unit_AE_1</t>
+  </si>
+  <si>
+    <t>Unit_AE_2</t>
+  </si>
+  <si>
+    <t>Unit_PT_1</t>
+  </si>
+  <si>
+    <t>Unit_PT_2</t>
+  </si>
+  <si>
+    <t>Unit_CB_1</t>
+  </si>
+  <si>
+    <t>Unit_CB_2</t>
+  </si>
+  <si>
+    <t>Unit_DDX_1</t>
+  </si>
+  <si>
+    <t>Unit_DDX_2</t>
+  </si>
+  <si>
+    <t>Unit_SSK_1</t>
+  </si>
+  <si>
+    <t>Unit_SSK_2</t>
+  </si>
+  <si>
+    <t>Unit_AM_1</t>
+  </si>
+  <si>
+    <t>Unit_AM_2</t>
   </si>
 </sst>
 </file>
@@ -566,14 +609,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06D154A-F5E9-4D36-9F54-5726679D6CC3}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
@@ -594,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>7</v>
@@ -608,7 +652,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -629,38 +673,38 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -681,12 +725,12 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -707,12 +751,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -724,7 +768,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -733,12 +777,12 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -759,12 +803,12 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -785,12 +829,12 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -811,12 +855,12 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -837,12 +881,12 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -863,12 +907,12 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -889,12 +933,12 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -915,12 +959,12 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -941,12 +985,12 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -967,12 +1011,12 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
@@ -993,12 +1037,12 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
@@ -1010,7 +1054,7 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1019,12 +1063,12 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
@@ -1045,12 +1089,12 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
@@ -1071,12 +1115,12 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
@@ -1088,7 +1132,7 @@
         <v>100</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1097,12 +1141,12 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
@@ -1123,12 +1167,12 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -1149,12 +1193,12 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
@@ -1175,12 +1219,12 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
@@ -1201,7 +1245,397 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>100</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Datasheet/UnitData.xlsx
+++ b/Datasheet/UnitData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolst\Desktop\Develop\GitHub\ValutOfHeaven\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45DBBD-25FC-43B4-87C3-F189EF846784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF40C375-E207-4C78-AC56-E68C84527891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,145 +75,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DST_Fubuki</t>
-  </si>
-  <si>
-    <t>DST_Shigure</t>
-  </si>
-  <si>
-    <t>DST_NorthernSupport</t>
-  </si>
-  <si>
-    <t>CAR_Taejong</t>
-  </si>
-  <si>
-    <t>CAR_HMSEdward</t>
-  </si>
-  <si>
-    <t>CAR_HMSWelling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCR_Jeyeon</t>
-  </si>
-  <si>
-    <t>TCR_Gwangmu</t>
-  </si>
-  <si>
-    <t>TCR_Kaiyuan</t>
-  </si>
-  <si>
-    <t>BB_Kaiserreich</t>
-  </si>
-  <si>
-    <t>BB_Inferno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB_Htailog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_DST_Fubuki_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_DST_Fubuki_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unit_DST_Shigure_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_DST_Shigure_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_DST_NorthernSupport_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_DST_NorthernSupport_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_CAR_Taejong_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_CAR_Taejong_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_CAR_HMSEdward_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_CAR_HMSEdward_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_CAR_HMSWelling_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_CAR_HMSWelling_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TCR_Jeyeon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TCR_Jeyeon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TCR_Gwangmu_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TCR_Gwangmu_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TCR_Kaiyuan_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_TCR_Kaiyuan_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_BB_Kaiserreich_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_BB_Kaiserreich_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_BB_Inferno_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_BB_Inferno_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_BB_Htailog_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit_BB_Htailog_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WPN_TwinTurboCannon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,22 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WPN_ShockwaveTorpedoes_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN_ShockwaveTorpedoes_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN_ExplosiveTorpedoes_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN_ExplosiveTorpedoes_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WPN_GravitonCannon_1,WPN_RapidMissiles_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,19 +143,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WPN_PhotonShockCannon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN_PhotonShockCannon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN_MagmaBombardment_1,WPN_EnergyShield_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WPN_MagmaBombardment_2,WPN_EnergyShield_2</t>
+    <t>nomal_ad_fury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_ad_jinmu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomal_tb_tuyenquang</t>
+  </si>
+  <si>
+    <t>nomal_bb_drake</t>
+  </si>
+  <si>
+    <t>high_bb_london</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nomal_sc_gaiseric</t>
+  </si>
+  <si>
+    <t>nomal_sp_qw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high_sc_courageous</t>
+  </si>
+  <si>
+    <t>Unit_nomal_ad_fury_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_ad_fury_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_high_ad_jinmu_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_high_ad_jinmu_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_tb_tuyenquang_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_tb_tuyenquang_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_bb_drake_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_bb_drake_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_high_bb_london_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_high_bb_london_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_sp_qw_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_sp_qw_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_sc_gaiseric_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_nomal_sc_gaiseric_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_high_sc_courageous_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_high_sc_courageous_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06D154A-F5E9-4D36-9F54-5726679D6CC3}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -775,7 +700,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -799,15 +724,15 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -831,15 +756,15 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -863,15 +788,15 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -895,15 +820,15 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -927,15 +852,15 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -959,15 +884,15 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -991,79 +916,79 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1087,47 +1012,47 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1151,15 +1076,15 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1183,15 +1108,15 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1215,15 +1140,15 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1247,15 +1172,15 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1279,266 +1204,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>63</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>100</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>100</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>100</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>100</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>100</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Datasheet/UnitData.xlsx
+++ b/Datasheet/UnitData.xlsx
@@ -1075,7 +1075,7 @@
   <x:dimension ref="A1:J17"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="F18" activeCellId="0" sqref="F18:F18"/>
+      <x:selection activeCell="H24" activeCellId="0" sqref="H24:H24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16.5"/>
